--- a/TRENINO 2.0/baseplate_view.xlsx
+++ b/TRENINO 2.0/baseplate_view.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8906E291-D49F-4D78-B165-713B5E1229EC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E391E6-C3EE-48EA-BFF9-98A962C4BC78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layout1" sheetId="1" r:id="rId1"/>
     <sheet name="Layout2" sheetId="2" r:id="rId2"/>
     <sheet name="Comandi" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="150">
   <si>
     <t>R</t>
   </si>
@@ -298,24 +305,6 @@
     <t>Curva</t>
   </si>
   <si>
-    <t>Rett</t>
-  </si>
-  <si>
-    <t>Binari</t>
-  </si>
-  <si>
-    <t>Scambio X + PL</t>
-  </si>
-  <si>
-    <t>Scambio</t>
-  </si>
-  <si>
-    <t>Faro</t>
-  </si>
-  <si>
-    <t>Molo</t>
-  </si>
-  <si>
     <t>Comando</t>
   </si>
   <si>
@@ -421,9 +410,6 @@
     <t>Note:</t>
   </si>
   <si>
-    <t>Ponte</t>
-  </si>
-  <si>
     <t>Sistema</t>
   </si>
   <si>
@@ -442,15 +428,6 @@
     <t>reset del sistema (valori iniziali)</t>
   </si>
   <si>
-    <t>Rettilineo</t>
-  </si>
-  <si>
-    <t>Incrocio a T</t>
-  </si>
-  <si>
-    <t>Mare</t>
-  </si>
-  <si>
     <t>pa|x</t>
   </si>
   <si>
@@ -458,6 +435,45 @@
   </si>
   <si>
     <t>Treno A è quello della stazione mentre il B è quello dell'officina, entrambe sul tracciato 1</t>
+  </si>
+  <si>
+    <t>Shed</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>Pier</t>
+  </si>
+  <si>
+    <t>Peir</t>
+  </si>
+  <si>
+    <t>Lighthouse</t>
+  </si>
+  <si>
+    <t>Sea</t>
+  </si>
+  <si>
+    <t>Straight</t>
+  </si>
+  <si>
+    <t>Rail</t>
+  </si>
+  <si>
+    <t>Bridge</t>
+  </si>
+  <si>
+    <t>X Junction + RC</t>
+  </si>
+  <si>
+    <t>T Crossroad</t>
+  </si>
+  <si>
+    <t>Curved</t>
   </si>
 </sst>
 </file>
@@ -3836,7 +3852,7 @@
   <dimension ref="A1:BB138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ21" sqref="AQ21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3906,50 +3922,50 @@
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
-        <v>141</v>
+      <c r="F2" s="92" t="s">
+        <v>144</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="6"/>
       <c r="I2" s="4"/>
       <c r="J2" s="5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="6"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="5" t="s">
-        <v>141</v>
+      <c r="N2" s="92" t="s">
+        <v>144</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="S2" s="5"/>
       <c r="T2" s="6"/>
       <c r="U2" s="4"/>
-      <c r="V2" s="5" t="s">
-        <v>141</v>
+      <c r="V2" s="92" t="s">
+        <v>144</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AA2" s="5"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="4"/>
-      <c r="AD2" s="5" t="s">
-        <v>141</v>
+      <c r="AD2" s="92" t="s">
+        <v>144</v>
       </c>
       <c r="AE2" s="5"/>
       <c r="AF2" s="6"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="5" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="6"/>
@@ -4016,7 +4032,7 @@
       <c r="AO3" s="4"/>
       <c r="AP3" s="5"/>
       <c r="AQ3" s="5" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="AR3" s="5"/>
       <c r="AS3" s="5"/>
@@ -4024,7 +4040,7 @@
       <c r="AU3" s="4"/>
       <c r="AV3" s="5"/>
       <c r="AW3" s="5" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="AX3" s="5"/>
       <c r="AY3" s="5"/>
@@ -4141,43 +4157,43 @@
     <row r="6" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="5" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="4"/>
       <c r="F6" s="5" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
       <c r="I6" s="4"/>
       <c r="J6" s="5" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="68"/>
       <c r="N6" s="13" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="O6" s="13"/>
       <c r="P6" s="122"/>
       <c r="Q6" s="121"/>
       <c r="R6" s="13" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="S6" s="13"/>
       <c r="T6" s="122"/>
       <c r="U6" s="121"/>
       <c r="V6" s="13" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="W6" s="13"/>
       <c r="X6" s="122"/>
       <c r="Y6" s="121"/>
       <c r="Z6" s="13" t="s">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="AA6" s="13"/>
       <c r="AB6" s="122"/>
@@ -4194,8 +4210,8 @@
       <c r="AI6" s="116"/>
       <c r="AJ6" s="117"/>
       <c r="AK6" s="4"/>
-      <c r="AL6" s="5" t="s">
-        <v>141</v>
+      <c r="AL6" s="92" t="s">
+        <v>144</v>
       </c>
       <c r="AM6" s="5"/>
       <c r="AN6" s="6"/>
@@ -4424,8 +4440,8 @@
       <c r="AU10" s="5"/>
       <c r="AV10" s="6"/>
       <c r="AW10" s="4"/>
-      <c r="AX10" s="5" t="s">
-        <v>93</v>
+      <c r="AX10" s="92" t="s">
+        <v>145</v>
       </c>
       <c r="AY10" s="5"/>
       <c r="AZ10" s="27"/>
@@ -4434,7 +4450,7 @@
       <c r="A11" s="26"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -4442,22 +4458,22 @@
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
       <c r="I11" s="149" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="150"/>
       <c r="N11" s="155" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="O11" s="151"/>
       <c r="P11" s="151"/>
       <c r="Q11" s="151"/>
       <c r="R11" s="152"/>
       <c r="S11" s="153"/>
-      <c r="T11" s="126" t="s">
-        <v>93</v>
+      <c r="T11" s="155" t="s">
+        <v>139</v>
       </c>
       <c r="U11" s="151"/>
       <c r="V11" s="151"/>
@@ -4465,15 +4481,15 @@
       <c r="X11" s="154"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="149" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="4"/>
-      <c r="AF11" s="149" t="s">
-        <v>93</v>
+      <c r="AF11" s="92" t="s">
+        <v>144</v>
       </c>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
@@ -4481,7 +4497,7 @@
       <c r="AJ11" s="5"/>
       <c r="AK11" s="226"/>
       <c r="AL11" s="126" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="AM11" s="126"/>
       <c r="AN11" s="126"/>
@@ -4658,8 +4674,8 @@
       <c r="AU14" s="8"/>
       <c r="AV14" s="8"/>
       <c r="AW14" s="4"/>
-      <c r="AX14" s="5" t="s">
-        <v>93</v>
+      <c r="AX14" s="92" t="s">
+        <v>145</v>
       </c>
       <c r="AY14" s="5"/>
       <c r="AZ14" s="27"/>
@@ -4777,7 +4793,7 @@
       <c r="A17" s="26"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -4785,14 +4801,14 @@
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
       <c r="I17" s="149" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="142"/>
       <c r="N17" s="110" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="O17" s="110"/>
       <c r="P17" s="110"/>
@@ -4800,7 +4816,7 @@
       <c r="R17" s="111"/>
       <c r="S17" s="109"/>
       <c r="T17" s="110" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="U17" s="110"/>
       <c r="V17" s="110"/>
@@ -4808,15 +4824,15 @@
       <c r="X17" s="111"/>
       <c r="Y17" s="109"/>
       <c r="Z17" s="110" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="AA17" s="110"/>
       <c r="AB17" s="110"/>
       <c r="AC17" s="110"/>
       <c r="AD17" s="143"/>
       <c r="AE17" s="5"/>
-      <c r="AF17" s="5" t="s">
-        <v>96</v>
+      <c r="AF17" s="149" t="s">
+        <v>138</v>
       </c>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
@@ -4824,7 +4840,7 @@
       <c r="AJ17" s="5"/>
       <c r="AK17" s="226"/>
       <c r="AL17" s="126" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="AM17" s="126"/>
       <c r="AN17" s="126"/>
@@ -4893,8 +4909,8 @@
       <c r="AU18" s="5"/>
       <c r="AV18" s="6"/>
       <c r="AW18" s="4"/>
-      <c r="AX18" s="5" t="s">
-        <v>93</v>
+      <c r="AX18" s="92" t="s">
+        <v>145</v>
       </c>
       <c r="AY18" s="5"/>
       <c r="AZ18" s="27"/>
@@ -5064,61 +5080,61 @@
     <row r="22" spans="1:52" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="204"/>
       <c r="B22" s="99" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="C22" s="99"/>
       <c r="D22" s="100"/>
       <c r="E22" s="98"/>
       <c r="F22" s="99" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="G22" s="99"/>
       <c r="H22" s="100"/>
       <c r="I22" s="98"/>
       <c r="J22" s="99" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="K22" s="99"/>
       <c r="L22" s="100"/>
       <c r="M22" s="98"/>
       <c r="N22" s="99" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="O22" s="99"/>
       <c r="P22" s="100"/>
       <c r="Q22" s="104"/>
       <c r="R22" s="10" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="S22" s="10"/>
       <c r="T22" s="105"/>
       <c r="U22" s="4"/>
       <c r="V22" s="92" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="W22" s="5"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="92" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AA22" s="5"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="92" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AE22" s="5"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="4"/>
-      <c r="AH22" s="5" t="s">
-        <v>141</v>
+      <c r="AH22" s="92" t="s">
+        <v>144</v>
       </c>
       <c r="AI22" s="5"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="4"/>
       <c r="AL22" s="5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AM22" s="5"/>
       <c r="AN22" s="6"/>
@@ -5287,7 +5303,7 @@
       <c r="AO25" s="4"/>
       <c r="AP25" s="5"/>
       <c r="AQ25" s="5" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="AR25" s="5"/>
       <c r="AS25" s="5"/>
@@ -5295,7 +5311,7 @@
       <c r="AU25" s="4"/>
       <c r="AV25" s="5"/>
       <c r="AW25" s="5" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="AX25" s="5"/>
       <c r="AY25" s="5"/>
@@ -5332,31 +5348,31 @@
       <c r="T26" s="6"/>
       <c r="U26" s="4"/>
       <c r="V26" s="92" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="W26" s="5"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="92" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AA26" s="5"/>
       <c r="AB26" s="6"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="92" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AE26" s="5"/>
       <c r="AF26" s="6"/>
       <c r="AG26" s="4"/>
-      <c r="AH26" s="5" t="s">
-        <v>141</v>
+      <c r="AH26" s="92" t="s">
+        <v>144</v>
       </c>
       <c r="AI26" s="5"/>
       <c r="AJ26" s="6"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="5" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="AM26" s="5"/>
       <c r="AN26" s="6"/>
@@ -5614,213 +5630,213 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="193" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B1" s="194" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C1" s="195" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="157"/>
       <c r="B2" s="158" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C2" s="159"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="163" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B3" s="161" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C3" s="164" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="165" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B4" s="162" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C4" s="166" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="187"/>
       <c r="B5" s="188" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C5" s="189"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="163" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B6" s="161" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C6" s="167" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="169" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B7" s="170" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C7" s="186" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="183"/>
       <c r="B8" s="184" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C8" s="185"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="163" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B9" s="161" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C9" s="167" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="169" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="170" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="186" t="s">
         <v>116</v>
-      </c>
-      <c r="B10" s="170" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="186" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="177"/>
       <c r="B11" s="178" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C11" s="179"/>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="180" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B12" s="181" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C12" s="182" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="174"/>
       <c r="B13" s="175" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C13" s="176"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="163" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B14" s="161" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C14" s="164" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="168" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B15" s="160" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C15" s="164" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="169" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="170" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="171" t="s">
         <v>120</v>
-      </c>
-      <c r="B16" s="170" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="171" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="190"/>
       <c r="B17" s="191" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C17" s="192"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="163" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B18" s="161" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C18" s="164" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="213" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B19" s="214" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C19" s="164" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="169" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B20" s="170" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C20" s="171" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="173" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="172" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="172" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
